--- a/Data/EC/NIT-9002378198.xlsx
+++ b/Data/EC/NIT-9002378198.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F6BC77B-80E1-413B-8AB8-4B15B00F702E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D24ED72A-814A-4FB5-B337-DCC39B9B0569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1E2A83E5-6A7D-4C9D-A0B7-910170C0E957}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{65ED3CDF-B629-4344-86E4-6A656E26A902}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="142">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,37 +65,358 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128050353</t>
+  </si>
+  <si>
+    <t>YEINIS ISABEL GUERRA MARTINEZ</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>70529910</t>
+  </si>
+  <si>
+    <t>JULIAN ALBERTO NISPERUZA LUNA</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>3768723</t>
+  </si>
+  <si>
+    <t>DAVID JOSE BARCELO THOMAS</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>73193395</t>
+  </si>
+  <si>
+    <t>ALEXANDER CUETO OSORIO</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
     <t>12555211</t>
   </si>
   <si>
     <t>JORGE ANIBAL GRANADOS ARJONA</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>3768723</t>
-  </si>
-  <si>
-    <t>DAVID JOSE BARCELO THOMAS</t>
-  </si>
-  <si>
-    <t>73193395</t>
-  </si>
-  <si>
-    <t>ALEXANDER CUETO OSORIO</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
   </si>
   <si>
     <t>1104408000</t>
@@ -104,322 +425,10 @@
     <t>LETY DEL CARMEN SANCHEZ AVILES</t>
   </si>
   <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
     <t>1047399291</t>
   </si>
   <si>
     <t>NAULEDIS AYARZA URBINA</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>70529910</t>
-  </si>
-  <si>
-    <t>JULIAN ALBERTO NISPERUZA LUNA</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -833,7 +842,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30BA43E-519B-AFDE-F33F-51855CD470A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C0A75C-A996-6F06-EDD4-AE6FA1F5F92B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,8 +1193,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B76FA2-AA86-4C5E-A672-F89A476DA04C}">
-  <dimension ref="B2:J350"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64098395-8CD0-46A1-B0FA-F242E6C4E259}">
+  <dimension ref="B2:J354"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1209,7 +1218,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1254,7 +1263,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1286,12 +1295,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>17273240</v>
+        <v>17590409</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1302,17 +1311,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F13" s="5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1339,13 +1348,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1362,10 +1371,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>100000</v>
+        <v>92960</v>
       </c>
       <c r="G16" s="18">
-        <v>2500000</v>
+        <v>2324000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1376,19 +1385,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>25774</v>
+        <v>92960</v>
       </c>
       <c r="G17" s="18">
-        <v>644350</v>
+        <v>2324000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1399,19 +1408,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>24640</v>
+        <v>104800</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>2620000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1422,19 +1431,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>24640</v>
+        <v>5155</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1445,13 +1454,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
         <v>25774</v>
@@ -1468,19 +1477,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>100000</v>
+        <v>25774</v>
       </c>
       <c r="G21" s="18">
-        <v>2500000</v>
+        <v>644350</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1491,13 +1500,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
         <v>25774</v>
@@ -1514,19 +1523,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1537,19 +1546,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>100000</v>
+        <v>25774</v>
       </c>
       <c r="G24" s="18">
-        <v>2500000</v>
+        <v>644350</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1560,19 +1569,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1583,13 +1592,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
         <v>25774</v>
@@ -1606,19 +1615,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
-        <v>100000</v>
+        <v>25774</v>
       </c>
       <c r="G27" s="18">
-        <v>2500000</v>
+        <v>644350</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1629,19 +1638,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1652,19 +1661,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
-        <v>100000</v>
+        <v>25774</v>
       </c>
       <c r="G29" s="18">
-        <v>2500000</v>
+        <v>644350</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1675,13 +1684,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
         <v>25774</v>
@@ -1698,19 +1707,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
-        <v>27578</v>
+        <v>25774</v>
       </c>
       <c r="G31" s="18">
-        <v>689454</v>
+        <v>644350</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1721,19 +1730,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1744,13 +1753,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>25774</v>
@@ -1767,19 +1776,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
-        <v>100000</v>
+        <v>25774</v>
       </c>
       <c r="G34" s="18">
-        <v>2500000</v>
+        <v>644350</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1790,19 +1799,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
-        <v>100000</v>
+        <v>25774</v>
       </c>
       <c r="G35" s="18">
-        <v>2500000</v>
+        <v>644350</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1813,13 +1822,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
         <v>25774</v>
@@ -1836,19 +1845,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
-        <v>27578</v>
+        <v>25774</v>
       </c>
       <c r="G37" s="18">
-        <v>689454</v>
+        <v>644350</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1859,19 +1868,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1882,19 +1891,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
-        <v>27578</v>
+        <v>25774</v>
       </c>
       <c r="G39" s="18">
-        <v>689454</v>
+        <v>644350</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1905,13 +1914,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
         <v>25774</v>
@@ -1928,19 +1937,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F41" s="18">
-        <v>100000</v>
+        <v>25774</v>
       </c>
       <c r="G41" s="18">
-        <v>2500000</v>
+        <v>644350</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1951,19 +1960,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F42" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1974,13 +1983,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F43" s="18">
         <v>25774</v>
@@ -1997,19 +2006,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F44" s="18">
-        <v>27578</v>
+        <v>25774</v>
       </c>
       <c r="G44" s="18">
-        <v>689454</v>
+        <v>644350</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2020,19 +2029,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F45" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G45" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2043,19 +2052,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F46" s="18">
-        <v>100000</v>
+        <v>25774</v>
       </c>
       <c r="G46" s="18">
-        <v>2500000</v>
+        <v>644350</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2066,19 +2075,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F47" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2089,13 +2098,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F48" s="18">
         <v>25774</v>
@@ -2112,19 +2121,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F49" s="18">
-        <v>27578</v>
+        <v>25774</v>
       </c>
       <c r="G49" s="18">
-        <v>689454</v>
+        <v>644350</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2135,19 +2144,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F50" s="18">
-        <v>100000</v>
+        <v>25774</v>
       </c>
       <c r="G50" s="18">
-        <v>2500000</v>
+        <v>644350</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2158,19 +2167,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F51" s="18">
-        <v>27578</v>
+        <v>28124</v>
       </c>
       <c r="G51" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2181,19 +2190,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F52" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2204,16 +2213,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F53" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2227,19 +2236,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F54" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2250,16 +2259,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F55" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2273,19 +2282,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F56" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2296,19 +2305,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F57" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2319,19 +2328,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F58" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2342,19 +2351,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F59" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2365,19 +2374,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F60" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2388,16 +2397,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F61" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2411,19 +2420,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F62" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2434,19 +2443,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F63" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2457,19 +2466,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F64" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2480,19 +2489,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F65" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2503,16 +2512,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="F66" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2526,19 +2535,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F67" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2549,16 +2558,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F68" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2572,19 +2581,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F69" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2595,19 +2604,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F70" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2618,19 +2627,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F71" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2641,16 +2650,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F72" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2664,19 +2673,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F73" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2687,19 +2696,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="F74" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2710,19 +2719,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="F75" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2733,19 +2742,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F76" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2756,19 +2765,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="F77" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2779,16 +2788,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="F78" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2802,19 +2811,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F79" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2825,19 +2834,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F80" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2848,19 +2857,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="F81" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2871,16 +2880,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="F82" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2894,19 +2903,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F83" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2917,19 +2926,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F84" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2940,16 +2949,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="F85" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2963,19 +2972,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="F86" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2986,19 +2995,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F87" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3009,16 +3018,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="F88" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -3032,19 +3041,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F89" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3055,19 +3064,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F90" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3078,16 +3087,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="F91" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -3101,19 +3110,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="F92" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3124,19 +3133,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="F93" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3147,19 +3156,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="F94" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3170,19 +3179,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="F95" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3193,19 +3202,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="F96" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3216,19 +3225,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="F97" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3239,16 +3248,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F98" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3262,19 +3271,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="F99" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3285,16 +3294,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="F100" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3308,19 +3317,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="F101" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3331,19 +3340,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F102" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3354,19 +3363,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F103" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3377,16 +3386,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F104" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3400,19 +3409,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F105" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3423,19 +3432,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F106" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3446,19 +3455,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F107" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3469,19 +3478,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F108" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3492,19 +3501,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F109" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G109" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3515,13 +3524,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F110" s="18">
         <v>24640</v>
@@ -3538,19 +3547,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F111" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G111" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3561,16 +3570,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3584,19 +3593,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F113" s="18">
-        <v>100000</v>
+        <v>24640</v>
       </c>
       <c r="G113" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3607,19 +3616,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G114" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3630,16 +3639,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3653,19 +3662,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F116" s="18">
-        <v>100000</v>
+        <v>24640</v>
       </c>
       <c r="G116" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3676,16 +3685,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F117" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G117" s="18">
         <v>781242</v>
@@ -3699,16 +3708,16 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F118" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G118" s="18">
         <v>781242</v>
@@ -3722,19 +3731,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F119" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G119" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3745,19 +3754,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F120" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G120" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3768,16 +3777,16 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F121" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G121" s="18">
         <v>781242</v>
@@ -3791,19 +3800,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F122" s="18">
-        <v>100000</v>
+        <v>24640</v>
       </c>
       <c r="G122" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3814,16 +3823,16 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F123" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G123" s="18">
         <v>781242</v>
@@ -3837,19 +3846,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F124" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G124" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3860,19 +3869,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F125" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G125" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3883,16 +3892,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G126" s="18">
         <v>781242</v>
@@ -3906,19 +3915,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F127" s="18">
-        <v>100000</v>
+        <v>24640</v>
       </c>
       <c r="G127" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3929,19 +3938,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G128" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3952,16 +3961,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F129" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G129" s="18">
         <v>781242</v>
@@ -3975,19 +3984,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F130" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G130" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3998,19 +4007,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F131" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G131" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4021,16 +4030,16 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E132" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G132" s="18">
         <v>781242</v>
@@ -4044,19 +4053,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F133" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G133" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4067,13 +4076,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F134" s="18">
         <v>100000</v>
@@ -4090,19 +4099,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F135" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G135" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4113,19 +4122,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F136" s="18">
-        <v>25774</v>
+        <v>100000</v>
       </c>
       <c r="G136" s="18">
-        <v>644350</v>
+        <v>2500000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4136,19 +4145,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F137" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G137" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4159,13 +4168,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F138" s="18">
         <v>100000</v>
@@ -4182,19 +4191,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F139" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G139" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4205,13 +4214,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="F140" s="18">
         <v>100000</v>
@@ -4228,19 +4237,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F141" s="18">
-        <v>5155</v>
+        <v>100000</v>
       </c>
       <c r="G141" s="18">
-        <v>644350</v>
+        <v>2500000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4251,19 +4260,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F142" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G142" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4274,19 +4283,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F143" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G143" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4297,13 +4306,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="F144" s="18">
         <v>100000</v>
@@ -4320,19 +4329,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="F145" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G145" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4343,19 +4352,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="F146" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G146" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4366,13 +4375,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="F147" s="18">
         <v>100000</v>
@@ -4389,19 +4398,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F148" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G148" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4412,19 +4421,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="F149" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G149" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4435,19 +4444,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F150" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G150" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4458,13 +4467,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="F151" s="18">
         <v>100000</v>
@@ -4481,13 +4490,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="F152" s="18">
         <v>100000</v>
@@ -4504,19 +4513,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="F153" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G153" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4527,19 +4536,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="F154" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G154" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4550,19 +4559,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F155" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G155" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4573,13 +4582,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="F156" s="18">
         <v>100000</v>
@@ -4596,19 +4605,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="F157" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G157" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4619,19 +4628,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="F158" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G158" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4642,13 +4651,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F159" s="18">
         <v>100000</v>
@@ -4665,19 +4674,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F160" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G160" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4688,19 +4697,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F161" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G161" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4711,19 +4720,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F162" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G162" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4734,13 +4743,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F163" s="18">
         <v>100000</v>
@@ -4757,19 +4766,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F164" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G164" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4780,19 +4789,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E165" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F165" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G165" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4803,13 +4812,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F166" s="18">
         <v>100000</v>
@@ -4826,13 +4835,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F167" s="18">
         <v>100000</v>
@@ -4849,19 +4858,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F168" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G168" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4872,19 +4881,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F169" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G169" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4895,19 +4904,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F170" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G170" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4918,19 +4927,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F171" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G171" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4941,13 +4950,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F172" s="18">
         <v>100000</v>
@@ -4964,13 +4973,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F173" s="18">
         <v>100000</v>
@@ -4987,19 +4996,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F174" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G174" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5010,19 +5019,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F175" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G175" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5033,19 +5042,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F176" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G176" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5056,19 +5065,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F177" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G177" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5079,13 +5088,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F178" s="18">
         <v>100000</v>
@@ -5102,13 +5111,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F179" s="18">
         <v>100000</v>
@@ -5125,19 +5134,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F180" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G180" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5148,19 +5157,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F181" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G181" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5171,19 +5180,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F182" s="18">
-        <v>104800</v>
+        <v>100000</v>
       </c>
       <c r="G182" s="18">
-        <v>2620000</v>
+        <v>2500000</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5194,13 +5203,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F183" s="18">
         <v>100000</v>
@@ -5217,19 +5226,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F184" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G184" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5240,19 +5249,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F185" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G185" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5263,19 +5272,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F186" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G186" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5286,19 +5295,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F187" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G187" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5309,13 +5318,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F188" s="18">
         <v>100000</v>
@@ -5332,19 +5341,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F189" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G189" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5355,13 +5364,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F190" s="18">
         <v>100000</v>
@@ -5378,19 +5387,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F191" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G191" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5401,19 +5410,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F192" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G192" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5424,19 +5433,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F193" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G193" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5447,13 +5456,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F194" s="18">
         <v>100000</v>
@@ -5470,19 +5479,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F195" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G195" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5493,19 +5502,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F196" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G196" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5516,13 +5525,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F197" s="18">
         <v>100000</v>
@@ -5539,19 +5548,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F198" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G198" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5562,13 +5571,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F199" s="18">
         <v>100000</v>
@@ -5585,19 +5594,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F200" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G200" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5608,13 +5617,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F201" s="18">
         <v>100000</v>
@@ -5631,19 +5640,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F202" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G202" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5654,19 +5663,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F203" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G203" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5677,13 +5686,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F204" s="18">
         <v>100000</v>
@@ -5700,19 +5709,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="F205" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G205" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5723,19 +5732,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F206" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G206" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5746,13 +5755,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="F207" s="18">
         <v>100000</v>
@@ -5769,19 +5778,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="F208" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G208" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5792,19 +5801,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F209" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G209" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5815,19 +5824,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="F210" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G210" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5838,19 +5847,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="F211" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G211" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5861,13 +5870,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F212" s="18">
         <v>100000</v>
@@ -5884,19 +5893,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D213" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E213" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E213" s="16" t="s">
-        <v>76</v>
-      </c>
       <c r="F213" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G213" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5907,13 +5916,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="F214" s="18">
         <v>100000</v>
@@ -5930,19 +5939,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="F215" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G215" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5953,13 +5962,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="F216" s="18">
         <v>100000</v>
@@ -5976,19 +5985,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="F217" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G217" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -5999,19 +6008,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="F218" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G218" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6022,19 +6031,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="F219" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G219" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6045,19 +6054,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="F220" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G220" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6068,13 +6077,13 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="F221" s="18">
         <v>100000</v>
@@ -6091,13 +6100,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="F222" s="18">
         <v>100000</v>
@@ -6114,19 +6123,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="F223" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G223" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6137,19 +6146,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="F224" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G224" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6160,19 +6169,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="F225" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G225" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6183,19 +6192,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="F226" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G226" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6206,13 +6215,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F227" s="18">
         <v>100000</v>
@@ -6229,19 +6238,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="F228" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G228" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6252,13 +6261,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F229" s="18">
         <v>100000</v>
@@ -6275,19 +6284,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="F230" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G230" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6298,19 +6307,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F231" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G231" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6321,13 +6330,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="F232" s="18">
         <v>100000</v>
@@ -6344,19 +6353,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="F233" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G233" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6367,13 +6376,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F234" s="18">
         <v>100000</v>
@@ -6390,19 +6399,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="F235" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G235" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6413,19 +6422,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F236" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G236" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6436,13 +6445,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="F237" s="18">
         <v>100000</v>
@@ -6459,19 +6468,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="F238" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G238" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6482,19 +6491,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="F239" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G239" s="18">
-        <v>689454</v>
+        <v>2500000</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6505,13 +6514,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="F240" s="18">
         <v>100000</v>
@@ -6528,19 +6537,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="F241" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G241" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6551,19 +6560,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="F242" s="18">
         <v>31249</v>
       </c>
       <c r="G242" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6574,19 +6583,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="F243" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G243" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6597,13 +6606,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F244" s="18">
         <v>31249</v>
@@ -6620,19 +6629,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F245" s="18">
         <v>31249</v>
       </c>
       <c r="G245" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6643,19 +6652,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F246" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G246" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6666,13 +6675,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F247" s="18">
         <v>31249</v>
@@ -6689,19 +6698,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F248" s="18">
         <v>31249</v>
       </c>
       <c r="G248" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6712,19 +6721,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F249" s="18">
         <v>31249</v>
       </c>
       <c r="G249" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6735,19 +6744,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F250" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G250" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6758,13 +6767,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="F251" s="18">
         <v>31249</v>
@@ -6781,13 +6790,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="F252" s="18">
         <v>31249</v>
@@ -6804,19 +6813,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F253" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G253" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6827,19 +6836,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F254" s="18">
         <v>31249</v>
       </c>
       <c r="G254" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6850,19 +6859,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F255" s="18">
         <v>31249</v>
       </c>
       <c r="G255" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6873,13 +6882,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="F256" s="18">
         <v>31249</v>
@@ -6896,19 +6905,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="F257" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G257" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6919,19 +6928,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="F258" s="18">
         <v>31249</v>
       </c>
       <c r="G258" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6942,13 +6951,13 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="F259" s="18">
         <v>31249</v>
@@ -6965,19 +6974,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="F260" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G260" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -6988,19 +6997,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="F261" s="18">
         <v>31249</v>
       </c>
       <c r="G261" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -7011,19 +7020,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="F262" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G262" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -7034,13 +7043,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="F263" s="18">
         <v>31249</v>
@@ -7057,19 +7066,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="F264" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G264" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7080,19 +7089,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="F265" s="18">
         <v>31249</v>
       </c>
       <c r="G265" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7103,13 +7112,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="F266" s="18">
         <v>31249</v>
@@ -7126,19 +7135,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="F267" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G267" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7149,19 +7158,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F268" s="18">
         <v>31249</v>
       </c>
       <c r="G268" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7172,13 +7181,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="F269" s="18">
         <v>31249</v>
@@ -7195,19 +7204,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F270" s="18">
         <v>31249</v>
       </c>
       <c r="G270" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7218,19 +7227,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="F271" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G271" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7241,13 +7250,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="F272" s="18">
         <v>31249</v>
@@ -7264,13 +7273,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="F273" s="18">
         <v>31249</v>
@@ -7287,19 +7296,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="F274" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G274" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7310,19 +7319,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F275" s="18">
         <v>31249</v>
       </c>
       <c r="G275" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7333,19 +7342,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="F276" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G276" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H276" s="19"/>
       <c r="I276" s="19"/>
@@ -7356,13 +7365,13 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F277" s="18">
         <v>31249</v>
@@ -7379,19 +7388,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F278" s="18">
         <v>31249</v>
       </c>
       <c r="G278" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7402,19 +7411,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="F279" s="18">
         <v>31249</v>
       </c>
       <c r="G279" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7425,13 +7434,13 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F280" s="18">
         <v>31249</v>
@@ -7448,19 +7457,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F281" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G281" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7471,13 +7480,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="F282" s="18">
         <v>31249</v>
@@ -7494,19 +7503,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F283" s="18">
         <v>31249</v>
       </c>
       <c r="G283" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7517,19 +7526,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F284" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G284" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7540,19 +7549,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F285" s="18">
         <v>31249</v>
       </c>
       <c r="G285" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7563,13 +7572,13 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F286" s="18">
         <v>31249</v>
@@ -7586,19 +7595,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F287" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G287" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7609,19 +7618,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F288" s="18">
         <v>31249</v>
       </c>
       <c r="G288" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7632,19 +7641,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="F289" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G289" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7655,13 +7664,13 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F290" s="18">
         <v>31249</v>
@@ -7678,19 +7687,19 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F291" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G291" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H291" s="19"/>
       <c r="I291" s="19"/>
@@ -7701,13 +7710,13 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F292" s="18">
         <v>31249</v>
@@ -7724,19 +7733,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="F293" s="18">
         <v>31249</v>
       </c>
       <c r="G293" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7747,16 +7756,16 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="F294" s="18">
-        <v>28124</v>
+        <v>31249</v>
       </c>
       <c r="G294" s="18">
         <v>781242</v>
@@ -7770,19 +7779,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F295" s="18">
         <v>31249</v>
       </c>
       <c r="G295" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7793,19 +7802,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="F296" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G296" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -7816,19 +7825,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F297" s="18">
         <v>31249</v>
       </c>
       <c r="G297" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7839,19 +7848,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F298" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G298" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7862,19 +7871,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F299" s="18">
         <v>31249</v>
       </c>
       <c r="G299" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7885,19 +7894,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F300" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G300" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -7908,19 +7917,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F301" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G301" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7931,19 +7940,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F302" s="18">
         <v>31249</v>
       </c>
       <c r="G302" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -7954,19 +7963,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F303" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G303" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -7977,19 +7986,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F304" s="18">
         <v>31249</v>
       </c>
       <c r="G304" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -8000,19 +8009,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="F305" s="18">
         <v>31249</v>
       </c>
       <c r="G305" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8023,19 +8032,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F306" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G306" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -8046,19 +8055,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F307" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G307" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8069,19 +8078,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="F308" s="18">
         <v>31249</v>
       </c>
       <c r="G308" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8092,19 +8101,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F309" s="18">
         <v>31249</v>
       </c>
       <c r="G309" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8115,19 +8124,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F310" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G310" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8138,19 +8147,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F311" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G311" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8161,19 +8170,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F312" s="18">
         <v>31249</v>
       </c>
       <c r="G312" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8184,19 +8193,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F313" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G313" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8207,19 +8216,19 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F314" s="18">
         <v>31249</v>
       </c>
       <c r="G314" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H314" s="19"/>
       <c r="I314" s="19"/>
@@ -8230,19 +8239,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F315" s="18">
         <v>31249</v>
       </c>
       <c r="G315" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8253,19 +8262,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F316" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G316" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8276,19 +8285,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F317" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G317" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8299,19 +8308,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="F318" s="18">
         <v>31249</v>
       </c>
       <c r="G318" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8322,19 +8331,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="F319" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G319" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8345,19 +8354,19 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D320" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E320" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D320" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E320" s="16" t="s">
-        <v>115</v>
-      </c>
       <c r="F320" s="18">
         <v>31249</v>
       </c>
       <c r="G320" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H320" s="19"/>
       <c r="I320" s="19"/>
@@ -8368,19 +8377,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="F321" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G321" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8391,19 +8400,19 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="F322" s="18">
         <v>31249</v>
       </c>
       <c r="G322" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H322" s="19"/>
       <c r="I322" s="19"/>
@@ -8414,19 +8423,19 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="F323" s="18">
         <v>31249</v>
       </c>
       <c r="G323" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19"/>
@@ -8437,19 +8446,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="F324" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G324" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8460,19 +8469,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="F325" s="18">
-        <v>100000</v>
+        <v>27578</v>
       </c>
       <c r="G325" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8483,19 +8492,19 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="F326" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G326" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H326" s="19"/>
       <c r="I326" s="19"/>
@@ -8506,19 +8515,19 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="F327" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G327" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H327" s="19"/>
       <c r="I327" s="19"/>
@@ -8529,19 +8538,19 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="F328" s="18">
-        <v>100000</v>
+        <v>27578</v>
       </c>
       <c r="G328" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
@@ -8552,19 +8561,19 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="F329" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G329" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H329" s="19"/>
       <c r="I329" s="19"/>
@@ -8575,19 +8584,19 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F330" s="18">
-        <v>100000</v>
+        <v>27578</v>
       </c>
       <c r="G330" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8598,19 +8607,19 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="F331" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G331" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H331" s="19"/>
       <c r="I331" s="19"/>
@@ -8621,19 +8630,19 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="F332" s="18">
-        <v>100000</v>
+        <v>27578</v>
       </c>
       <c r="G332" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H332" s="19"/>
       <c r="I332" s="19"/>
@@ -8644,19 +8653,19 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="F333" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G333" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
@@ -8667,19 +8676,19 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="F334" s="18">
-        <v>100000</v>
+        <v>27578</v>
       </c>
       <c r="G334" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H334" s="19"/>
       <c r="I334" s="19"/>
@@ -8690,19 +8699,19 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="F335" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G335" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H335" s="19"/>
       <c r="I335" s="19"/>
@@ -8713,19 +8722,19 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="F336" s="18">
-        <v>100000</v>
+        <v>27578</v>
       </c>
       <c r="G336" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H336" s="19"/>
       <c r="I336" s="19"/>
@@ -8736,19 +8745,19 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="F337" s="18">
-        <v>100000</v>
+        <v>27578</v>
       </c>
       <c r="G337" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H337" s="19"/>
       <c r="I337" s="19"/>
@@ -8759,19 +8768,19 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="F338" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G338" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H338" s="19"/>
       <c r="I338" s="19"/>
@@ -8782,19 +8791,19 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="F339" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G339" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19"/>
@@ -8805,19 +8814,19 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="F340" s="18">
-        <v>100000</v>
+        <v>27578</v>
       </c>
       <c r="G340" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -8828,19 +8837,19 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="F341" s="18">
-        <v>100000</v>
+        <v>27578</v>
       </c>
       <c r="G341" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H341" s="19"/>
       <c r="I341" s="19"/>
@@ -8851,19 +8860,19 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="F342" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G342" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H342" s="19"/>
       <c r="I342" s="19"/>
@@ -8874,75 +8883,167 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="F343" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G343" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H343" s="19"/>
       <c r="I343" s="19"/>
       <c r="J343" s="20"/>
     </row>
     <row r="344" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B344" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C344" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D344" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E344" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F344" s="24">
-        <v>100000</v>
-      </c>
-      <c r="G344" s="24">
-        <v>2500000</v>
-      </c>
-      <c r="H344" s="25"/>
-      <c r="I344" s="25"/>
-      <c r="J344" s="26"/>
-    </row>
-    <row r="349" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B349" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C349" s="32"/>
-      <c r="H349" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I349" s="1"/>
-      <c r="J349" s="1"/>
-    </row>
-    <row r="350" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B350" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C350" s="32"/>
-      <c r="H350" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I350" s="1"/>
-      <c r="J350" s="1"/>
+      <c r="B344" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C344" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D344" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E344" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F344" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G344" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H344" s="19"/>
+      <c r="I344" s="19"/>
+      <c r="J344" s="20"/>
+    </row>
+    <row r="345" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B345" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C345" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D345" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E345" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F345" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G345" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H345" s="19"/>
+      <c r="I345" s="19"/>
+      <c r="J345" s="20"/>
+    </row>
+    <row r="346" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B346" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C346" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D346" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E346" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F346" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G346" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H346" s="19"/>
+      <c r="I346" s="19"/>
+      <c r="J346" s="20"/>
+    </row>
+    <row r="347" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B347" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C347" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D347" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E347" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F347" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G347" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H347" s="19"/>
+      <c r="I347" s="19"/>
+      <c r="J347" s="20"/>
+    </row>
+    <row r="348" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B348" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C348" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D348" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E348" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F348" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G348" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H348" s="25"/>
+      <c r="I348" s="25"/>
+      <c r="J348" s="26"/>
+    </row>
+    <row r="353" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B353" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C353" s="32"/>
+      <c r="H353" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I353" s="1"/>
+      <c r="J353" s="1"/>
+    </row>
+    <row r="354" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B354" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C354" s="32"/>
+      <c r="H354" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B350:C350"/>
-    <mergeCell ref="B349:C349"/>
-    <mergeCell ref="H350:J350"/>
-    <mergeCell ref="H349:J349"/>
+    <mergeCell ref="B354:C354"/>
+    <mergeCell ref="B353:C353"/>
+    <mergeCell ref="H354:J354"/>
+    <mergeCell ref="H353:J353"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9002378198.xlsx
+++ b/Data/EC/NIT-9002378198.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D24ED72A-814A-4FB5-B337-DCC39B9B0569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB297558-EF97-4D56-88BF-184240E9DC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{65ED3CDF-B629-4344-86E4-6A656E26A902}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BA25D710-C609-47EC-B82E-6FED8A4B8BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="141">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,370 +65,367 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1128050353</t>
-  </si>
-  <si>
-    <t>YEINIS ISABEL GUERRA MARTINEZ</t>
+    <t>3768723</t>
+  </si>
+  <si>
+    <t>DAVID JOSE BARCELO THOMAS</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>73193395</t>
+  </si>
+  <si>
+    <t>ALEXANDER CUETO OSORIO</t>
+  </si>
+  <si>
+    <t>12555211</t>
+  </si>
+  <si>
+    <t>JORGE ANIBAL GRANADOS ARJONA</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1104408000</t>
+  </si>
+  <si>
+    <t>LETY DEL CARMEN SANCHEZ AVILES</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1047399291</t>
+  </si>
+  <si>
+    <t>NAULEDIS AYARZA URBINA</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>70529910</t>
+  </si>
+  <si>
+    <t>JULIAN ALBERTO NISPERUZA LUNA</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>70529910</t>
-  </si>
-  <si>
-    <t>JULIAN ALBERTO NISPERUZA LUNA</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>3768723</t>
-  </si>
-  <si>
-    <t>DAVID JOSE BARCELO THOMAS</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>73193395</t>
-  </si>
-  <si>
-    <t>ALEXANDER CUETO OSORIO</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>12555211</t>
-  </si>
-  <si>
-    <t>JORGE ANIBAL GRANADOS ARJONA</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>1104408000</t>
-  </si>
-  <si>
-    <t>LETY DEL CARMEN SANCHEZ AVILES</t>
-  </si>
-  <si>
-    <t>1047399291</t>
-  </si>
-  <si>
-    <t>NAULEDIS AYARZA URBINA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -527,7 +524,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -540,9 +539,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -742,23 +739,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -786,10 +783,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -842,7 +839,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C0A75C-A996-6F06-EDD4-AE6FA1F5F92B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B006B670-9DB9-EC00-9629-D7CCF49CCE62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1193,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64098395-8CD0-46A1-B0FA-F242E6C4E259}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F2571F-DC4B-4398-ACD9-CEEFFC6982D2}">
   <dimension ref="B2:J354"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1218,7 +1215,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1263,7 +1260,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1295,12 +1292,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>17590409</v>
+        <v>17535738</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1311,17 +1308,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F13" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1348,13 +1345,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>137</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1371,10 +1368,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>92960</v>
+        <v>25774</v>
       </c>
       <c r="G16" s="18">
-        <v>2324000</v>
+        <v>644350</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1385,19 +1382,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>92960</v>
+        <v>24640</v>
       </c>
       <c r="G17" s="18">
-        <v>2324000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1408,19 +1405,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>104800</v>
+        <v>100000</v>
       </c>
       <c r="G18" s="18">
-        <v>2620000</v>
+        <v>2500000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1431,16 +1428,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F19" s="18">
-        <v>5155</v>
+        <v>25774</v>
       </c>
       <c r="G19" s="18">
         <v>644350</v>
@@ -1454,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F20" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G20" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1477,19 +1474,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F21" s="18">
-        <v>25774</v>
+        <v>100000</v>
       </c>
       <c r="G21" s="18">
-        <v>644350</v>
+        <v>2500000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1500,13 +1497,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F22" s="18">
         <v>25774</v>
@@ -1523,19 +1520,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F23" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G23" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1546,19 +1543,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F24" s="18">
-        <v>25774</v>
+        <v>100000</v>
       </c>
       <c r="G24" s="18">
-        <v>644350</v>
+        <v>2500000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1569,13 +1566,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>25774</v>
@@ -1592,19 +1589,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G26" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1615,19 +1612,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>25774</v>
+        <v>100000</v>
       </c>
       <c r="G27" s="18">
-        <v>644350</v>
+        <v>2500000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1638,13 +1635,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>25774</v>
@@ -1661,19 +1658,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G29" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1684,19 +1681,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
-        <v>25774</v>
+        <v>100000</v>
       </c>
       <c r="G30" s="18">
-        <v>644350</v>
+        <v>2500000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1707,13 +1704,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
         <v>25774</v>
@@ -1730,19 +1727,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G32" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1753,19 +1750,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F33" s="18">
-        <v>25774</v>
+        <v>100000</v>
       </c>
       <c r="G33" s="18">
-        <v>644350</v>
+        <v>2500000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1776,19 +1773,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F34" s="18">
-        <v>25774</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1799,13 +1796,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
         <v>25774</v>
@@ -1822,19 +1819,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G36" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1845,19 +1842,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>25774</v>
+        <v>100000</v>
       </c>
       <c r="G37" s="18">
-        <v>644350</v>
+        <v>2500000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1868,19 +1865,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F38" s="18">
-        <v>25774</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1891,13 +1888,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
         <v>25774</v>
@@ -1914,19 +1911,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F40" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G40" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1937,19 +1934,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18">
-        <v>25774</v>
+        <v>100000</v>
       </c>
       <c r="G41" s="18">
-        <v>644350</v>
+        <v>2500000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1960,19 +1957,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F42" s="18">
-        <v>25774</v>
+        <v>27578</v>
       </c>
       <c r="G42" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1983,13 +1980,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F43" s="18">
         <v>25774</v>
@@ -2006,19 +2003,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F44" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G44" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2029,19 +2026,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F45" s="18">
-        <v>25774</v>
+        <v>100000</v>
       </c>
       <c r="G45" s="18">
-        <v>644350</v>
+        <v>2500000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2052,19 +2049,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
-        <v>25774</v>
+        <v>27578</v>
       </c>
       <c r="G46" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2075,13 +2072,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F47" s="18">
         <v>25774</v>
@@ -2098,19 +2095,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F48" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G48" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2121,19 +2118,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18">
-        <v>25774</v>
+        <v>100000</v>
       </c>
       <c r="G49" s="18">
-        <v>644350</v>
+        <v>2500000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2144,19 +2141,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F50" s="18">
-        <v>25774</v>
+        <v>27578</v>
       </c>
       <c r="G50" s="18">
-        <v>644350</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2167,19 +2164,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F51" s="18">
-        <v>28124</v>
+        <v>25774</v>
       </c>
       <c r="G51" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2190,16 +2187,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2213,19 +2210,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G53" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2236,16 +2233,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2259,19 +2256,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G55" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2282,16 +2279,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2305,19 +2302,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G57" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2328,16 +2325,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2351,19 +2348,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2374,16 +2371,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2397,19 +2394,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G61" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2420,16 +2417,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2443,19 +2440,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G63" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2466,16 +2463,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2489,19 +2486,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2512,16 +2509,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2535,19 +2532,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G67" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2558,16 +2555,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2581,19 +2578,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F69" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G69" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2604,16 +2601,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2627,19 +2624,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G71" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2650,16 +2647,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2673,19 +2670,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G73" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2696,16 +2693,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2719,19 +2716,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G75" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2742,16 +2739,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2765,19 +2762,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G77" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2788,16 +2785,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2811,19 +2808,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G79" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2834,16 +2831,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2857,19 +2854,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G81" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2880,16 +2877,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2903,19 +2900,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G83" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2926,16 +2923,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2949,19 +2946,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G85" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2972,16 +2969,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2995,19 +2992,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G87" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3018,16 +3015,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -3041,19 +3038,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G89" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3064,16 +3061,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -3087,19 +3084,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3110,16 +3107,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -3133,19 +3130,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G93" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3156,16 +3153,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3179,19 +3176,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3202,16 +3199,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3225,19 +3222,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G97" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3248,16 +3245,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3271,19 +3268,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3294,16 +3291,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3317,19 +3314,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G101" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3340,16 +3337,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3363,19 +3360,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G103" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3386,16 +3383,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3409,19 +3406,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G105" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3432,16 +3429,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3455,19 +3452,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G107" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3478,16 +3475,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3501,19 +3498,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F109" s="18">
-        <v>24640</v>
+        <v>100000</v>
       </c>
       <c r="G109" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3524,16 +3521,16 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F110" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G110" s="18">
         <v>781242</v>
@@ -3547,19 +3544,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F111" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3570,16 +3567,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F112" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3593,19 +3590,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F113" s="18">
-        <v>24640</v>
+        <v>100000</v>
       </c>
       <c r="G113" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3616,16 +3613,16 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F114" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
         <v>781242</v>
@@ -3639,19 +3636,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F115" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3662,19 +3659,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F116" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G116" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3685,16 +3682,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F117" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
         <v>781242</v>
@@ -3708,19 +3705,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F118" s="18">
-        <v>24640</v>
+        <v>100000</v>
       </c>
       <c r="G118" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3731,16 +3728,16 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F119" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
         <v>781242</v>
@@ -3754,19 +3751,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F120" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3777,19 +3774,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F121" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G121" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3800,16 +3797,16 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F122" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
         <v>781242</v>
@@ -3823,19 +3820,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F123" s="18">
-        <v>24640</v>
+        <v>100000</v>
       </c>
       <c r="G123" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3846,16 +3843,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F124" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
         <v>781242</v>
@@ -3869,19 +3866,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F125" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3892,19 +3889,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F126" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G126" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3915,16 +3912,16 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F127" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
         <v>781242</v>
@@ -3938,19 +3935,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F128" s="18">
-        <v>24640</v>
+        <v>100000</v>
       </c>
       <c r="G128" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3961,16 +3958,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F129" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
         <v>781242</v>
@@ -3984,19 +3981,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F130" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4007,19 +4004,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F131" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G131" s="18">
-        <v>781242</v>
+        <v>644350</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4030,16 +4027,16 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E132" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F132" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G132" s="18">
         <v>781242</v>
@@ -4053,19 +4050,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F133" s="18">
-        <v>24640</v>
+        <v>100000</v>
       </c>
       <c r="G133" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4076,19 +4073,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F134" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G134" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4099,19 +4096,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F135" s="18">
-        <v>100000</v>
+        <v>25774</v>
       </c>
       <c r="G135" s="18">
-        <v>2500000</v>
+        <v>644350</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4122,19 +4119,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="F136" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G136" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4145,13 +4142,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="F137" s="18">
         <v>100000</v>
@@ -4168,19 +4165,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="F138" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G138" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4191,19 +4188,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="F139" s="18">
-        <v>100000</v>
+        <v>5155</v>
       </c>
       <c r="G139" s="18">
-        <v>2500000</v>
+        <v>644350</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4214,19 +4211,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="F140" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G140" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4237,13 +4234,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="F141" s="18">
         <v>100000</v>
@@ -4260,19 +4257,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F142" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G142" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4283,19 +4280,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F143" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G143" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4306,13 +4303,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="F144" s="18">
         <v>100000</v>
@@ -4329,19 +4326,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F145" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G145" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4352,19 +4349,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="F146" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G146" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4375,13 +4372,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="F147" s="18">
         <v>100000</v>
@@ -4398,19 +4395,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="F148" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G148" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4421,19 +4418,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="F149" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G149" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4444,13 +4441,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="F150" s="18">
         <v>100000</v>
@@ -4467,19 +4464,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="F151" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G151" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4490,19 +4487,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="F152" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G152" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4513,13 +4510,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="F153" s="18">
         <v>100000</v>
@@ -4536,19 +4533,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="F154" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G154" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4559,19 +4556,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="F155" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G155" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4582,13 +4579,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="F156" s="18">
         <v>100000</v>
@@ -4605,19 +4602,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="F157" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G157" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4628,19 +4625,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="F158" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G158" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4651,13 +4648,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F159" s="18">
         <v>100000</v>
@@ -4674,19 +4671,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F160" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G160" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4697,19 +4694,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F161" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G161" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4720,13 +4717,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F162" s="18">
         <v>100000</v>
@@ -4743,19 +4740,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F163" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G163" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4766,19 +4763,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F164" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G164" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4789,10 +4786,10 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E165" s="16" t="s">
         <v>58</v>
@@ -4812,19 +4809,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F166" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G166" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4835,19 +4832,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F167" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G167" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4858,13 +4855,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F168" s="18">
         <v>100000</v>
@@ -4881,19 +4878,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F169" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G169" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4904,19 +4901,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F170" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G170" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4927,13 +4924,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F171" s="18">
         <v>100000</v>
@@ -4950,19 +4947,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F172" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G172" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4973,19 +4970,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F173" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G173" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4996,13 +4993,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F174" s="18">
         <v>100000</v>
@@ -5019,19 +5016,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F175" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G175" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5042,19 +5039,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F176" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G176" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5065,13 +5062,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F177" s="18">
         <v>100000</v>
@@ -5088,19 +5085,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F178" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G178" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5111,19 +5108,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F179" s="18">
-        <v>100000</v>
+        <v>104800</v>
       </c>
       <c r="G179" s="18">
-        <v>2500000</v>
+        <v>2620000</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5134,19 +5131,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F180" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G180" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5157,13 +5154,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F181" s="18">
         <v>100000</v>
@@ -5180,19 +5177,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F182" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G182" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5203,19 +5200,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F183" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G183" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5226,13 +5223,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F184" s="18">
         <v>100000</v>
@@ -5249,19 +5246,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F185" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G185" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5272,19 +5269,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F186" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G186" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5295,13 +5292,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F187" s="18">
         <v>100000</v>
@@ -5318,19 +5315,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F188" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G188" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5341,19 +5338,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F189" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G189" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5364,13 +5361,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F190" s="18">
         <v>100000</v>
@@ -5387,19 +5384,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F191" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G191" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5410,19 +5407,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F192" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G192" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5433,13 +5430,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F193" s="18">
         <v>100000</v>
@@ -5456,19 +5453,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F194" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G194" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5479,19 +5476,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F195" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G195" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5502,13 +5499,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F196" s="18">
         <v>100000</v>
@@ -5525,19 +5522,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F197" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G197" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5548,19 +5545,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F198" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G198" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5571,13 +5568,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F199" s="18">
         <v>100000</v>
@@ -5594,19 +5591,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F200" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G200" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5617,19 +5614,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F201" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G201" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5640,13 +5637,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F202" s="18">
         <v>100000</v>
@@ -5663,19 +5660,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F203" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G203" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5686,19 +5683,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F204" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G204" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5709,13 +5706,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="F205" s="18">
         <v>100000</v>
@@ -5732,19 +5729,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="F206" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G206" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5755,19 +5752,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="F207" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G207" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5778,13 +5775,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F208" s="18">
         <v>100000</v>
@@ -5801,19 +5798,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="F209" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G209" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5824,19 +5821,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F210" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G210" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5847,13 +5844,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="F211" s="18">
         <v>100000</v>
@@ -5870,19 +5867,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F212" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G212" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5893,19 +5890,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="F213" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G213" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5916,13 +5913,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="F214" s="18">
         <v>100000</v>
@@ -5939,19 +5936,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F215" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G215" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5962,19 +5959,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="F216" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G216" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5985,13 +5982,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="F217" s="18">
         <v>100000</v>
@@ -6008,19 +6005,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="F218" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G218" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6031,19 +6028,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F219" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G219" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6054,13 +6051,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F220" s="18">
         <v>100000</v>
@@ -6077,19 +6074,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F221" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G221" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6100,19 +6097,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F222" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G222" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6123,13 +6120,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F223" s="18">
         <v>100000</v>
@@ -6146,19 +6143,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="F224" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G224" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6169,19 +6166,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F225" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G225" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6192,13 +6189,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F226" s="18">
         <v>100000</v>
@@ -6215,19 +6212,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F227" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G227" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6238,19 +6235,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="F228" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G228" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6261,13 +6258,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F229" s="18">
         <v>100000</v>
@@ -6284,19 +6281,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F230" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G230" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6307,19 +6304,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="F231" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G231" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6330,13 +6327,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F232" s="18">
         <v>100000</v>
@@ -6353,19 +6350,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="F233" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G233" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6376,19 +6373,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F234" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G234" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6399,13 +6396,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F235" s="18">
         <v>100000</v>
@@ -6422,19 +6419,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="F236" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G236" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6445,19 +6442,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="F237" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G237" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6468,13 +6465,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F238" s="18">
         <v>100000</v>
@@ -6491,19 +6488,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F239" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G239" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6514,19 +6511,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="F240" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G240" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6537,13 +6534,13 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F241" s="18">
         <v>100000</v>
@@ -6560,13 +6557,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F242" s="18">
         <v>31249</v>
@@ -6583,13 +6580,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F243" s="18">
         <v>31249</v>
@@ -6606,19 +6603,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F244" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G244" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6629,13 +6626,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F245" s="18">
         <v>31249</v>
@@ -6652,13 +6649,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F246" s="18">
         <v>31249</v>
@@ -6675,19 +6672,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F247" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G247" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6698,13 +6695,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F248" s="18">
         <v>31249</v>
@@ -6721,13 +6718,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F249" s="18">
         <v>31249</v>
@@ -6744,19 +6741,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F250" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G250" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6767,13 +6764,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F251" s="18">
         <v>31249</v>
@@ -6790,13 +6787,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F252" s="18">
         <v>31249</v>
@@ -6813,19 +6810,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F253" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G253" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6836,13 +6833,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="F254" s="18">
         <v>31249</v>
@@ -6859,13 +6856,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="F255" s="18">
         <v>31249</v>
@@ -6882,19 +6879,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F256" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G256" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6905,13 +6902,13 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="F257" s="18">
         <v>31249</v>
@@ -6928,13 +6925,13 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="F258" s="18">
         <v>31249</v>
@@ -6951,19 +6948,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="F259" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G259" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6974,13 +6971,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="F260" s="18">
         <v>31249</v>
@@ -6997,13 +6994,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="F261" s="18">
         <v>31249</v>
@@ -7020,19 +7017,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="F262" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G262" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -7043,13 +7040,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="F263" s="18">
         <v>31249</v>
@@ -7066,13 +7063,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="F264" s="18">
         <v>31249</v>
@@ -7089,19 +7086,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="F265" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G265" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7112,13 +7109,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="F266" s="18">
         <v>31249</v>
@@ -7135,13 +7132,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F267" s="18">
         <v>31249</v>
@@ -7158,19 +7155,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="F268" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G268" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7181,13 +7178,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F269" s="18">
         <v>31249</v>
@@ -7204,13 +7201,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F270" s="18">
         <v>31249</v>
@@ -7227,19 +7224,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="F271" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G271" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7250,13 +7247,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F272" s="18">
         <v>31249</v>
@@ -7273,13 +7270,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F273" s="18">
         <v>31249</v>
@@ -7296,19 +7293,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F274" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G274" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7319,13 +7316,13 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F275" s="18">
         <v>31249</v>
@@ -7342,13 +7339,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="F276" s="18">
         <v>31249</v>
@@ -7365,19 +7362,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F277" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G277" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7388,13 +7385,13 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="F278" s="18">
         <v>31249</v>
@@ -7411,13 +7408,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F279" s="18">
         <v>31249</v>
@@ -7434,19 +7431,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="F280" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G280" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7457,13 +7454,13 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F281" s="18">
         <v>31249</v>
@@ -7480,13 +7477,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F282" s="18">
         <v>31249</v>
@@ -7503,19 +7500,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F283" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G283" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7526,13 +7523,13 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F284" s="18">
         <v>31249</v>
@@ -7549,13 +7546,13 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F285" s="18">
         <v>31249</v>
@@ -7572,19 +7569,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="F286" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G286" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7595,13 +7592,13 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="F287" s="18">
         <v>31249</v>
@@ -7618,13 +7615,13 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F288" s="18">
         <v>31249</v>
@@ -7641,19 +7638,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F289" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G289" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7664,13 +7661,13 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="F290" s="18">
         <v>31249</v>
@@ -7687,13 +7684,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F291" s="18">
         <v>31249</v>
@@ -7710,19 +7707,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F292" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G292" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7733,13 +7730,13 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="F293" s="18">
         <v>31249</v>
@@ -7756,16 +7753,16 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="F294" s="18">
-        <v>31249</v>
+        <v>28124</v>
       </c>
       <c r="G294" s="18">
         <v>781242</v>
@@ -7779,19 +7776,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F295" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G295" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7802,13 +7799,13 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F296" s="18">
         <v>31249</v>
@@ -7825,19 +7822,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="F297" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G297" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7848,13 +7845,13 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F298" s="18">
         <v>31249</v>
@@ -7871,19 +7868,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F299" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G299" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7894,13 +7891,13 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F300" s="18">
         <v>31249</v>
@@ -7917,19 +7914,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F301" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G301" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7940,13 +7937,13 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F302" s="18">
         <v>31249</v>
@@ -7963,19 +7960,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F303" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G303" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -7986,13 +7983,13 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F304" s="18">
         <v>31249</v>
@@ -8009,19 +8006,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="F305" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G305" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8032,13 +8029,13 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F306" s="18">
         <v>31249</v>
@@ -8055,19 +8052,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F307" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G307" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8078,13 +8075,13 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F308" s="18">
         <v>31249</v>
@@ -8101,19 +8098,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="F309" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G309" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8124,13 +8121,13 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="F310" s="18">
         <v>31249</v>
@@ -8147,19 +8144,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F311" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G311" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8170,13 +8167,13 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F312" s="18">
         <v>31249</v>
@@ -8193,19 +8190,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F313" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G313" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8216,13 +8213,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F314" s="18">
         <v>31249</v>
@@ -8239,19 +8236,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F315" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G315" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8262,13 +8259,13 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F316" s="18">
         <v>31249</v>
@@ -8285,19 +8282,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F317" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G317" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8308,13 +8305,13 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="F318" s="18">
         <v>31249</v>
@@ -8331,19 +8328,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="F319" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G319" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8354,13 +8351,13 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F320" s="18">
         <v>31249</v>
@@ -8377,19 +8374,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="F321" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G321" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8400,13 +8397,13 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="F322" s="18">
         <v>31249</v>
@@ -8423,19 +8420,19 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="F323" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G323" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19"/>
@@ -8446,13 +8443,13 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="F324" s="18">
         <v>31249</v>
@@ -8469,19 +8466,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="F325" s="18">
-        <v>27578</v>
+        <v>100000</v>
       </c>
       <c r="G325" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8492,16 +8489,16 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F326" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G326" s="18">
         <v>781242</v>
@@ -8515,19 +8512,19 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="F327" s="18">
-        <v>27578</v>
+        <v>100000</v>
       </c>
       <c r="G327" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H327" s="19"/>
       <c r="I327" s="19"/>
@@ -8538,16 +8535,16 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="F328" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G328" s="18">
         <v>781242</v>
@@ -8561,19 +8558,19 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="F329" s="18">
-        <v>27578</v>
+        <v>100000</v>
       </c>
       <c r="G329" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H329" s="19"/>
       <c r="I329" s="19"/>
@@ -8584,16 +8581,16 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F330" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G330" s="18">
         <v>781242</v>
@@ -8607,19 +8604,19 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F331" s="18">
-        <v>27578</v>
+        <v>100000</v>
       </c>
       <c r="G331" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H331" s="19"/>
       <c r="I331" s="19"/>
@@ -8630,16 +8627,16 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="F332" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G332" s="18">
         <v>781242</v>
@@ -8653,19 +8650,19 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="F333" s="18">
-        <v>27578</v>
+        <v>100000</v>
       </c>
       <c r="G333" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
@@ -8676,16 +8673,16 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="F334" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G334" s="18">
         <v>781242</v>
@@ -8699,19 +8696,19 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="F335" s="18">
-        <v>27578</v>
+        <v>100000</v>
       </c>
       <c r="G335" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H335" s="19"/>
       <c r="I335" s="19"/>
@@ -8722,16 +8719,16 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="F336" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G336" s="18">
         <v>781242</v>
@@ -8745,19 +8742,19 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="F337" s="18">
-        <v>27578</v>
+        <v>100000</v>
       </c>
       <c r="G337" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H337" s="19"/>
       <c r="I337" s="19"/>
@@ -8768,16 +8765,16 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="F338" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G338" s="18">
         <v>781242</v>
@@ -8791,19 +8788,19 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="F339" s="18">
-        <v>27578</v>
+        <v>100000</v>
       </c>
       <c r="G339" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19"/>
@@ -8814,16 +8811,16 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="F340" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G340" s="18">
         <v>781242</v>
@@ -8837,19 +8834,19 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="F341" s="18">
-        <v>27578</v>
+        <v>100000</v>
       </c>
       <c r="G341" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H341" s="19"/>
       <c r="I341" s="19"/>
@@ -8860,16 +8857,16 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="F342" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G342" s="18">
         <v>781242</v>
@@ -8883,19 +8880,19 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D343" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E343" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D343" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E343" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="F343" s="18">
-        <v>27578</v>
+        <v>100000</v>
       </c>
       <c r="G343" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H343" s="19"/>
       <c r="I343" s="19"/>
@@ -8906,16 +8903,16 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D344" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E344" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D344" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E344" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="F344" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G344" s="18">
         <v>781242</v>
@@ -8929,19 +8926,19 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="F345" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G345" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H345" s="19"/>
       <c r="I345" s="19"/>
@@ -8952,13 +8949,13 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="F346" s="18">
         <v>31249</v>
@@ -8975,19 +8972,19 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D347" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E347" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D347" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="E347" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F347" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G347" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H347" s="19"/>
       <c r="I347" s="19"/>
@@ -8998,13 +8995,13 @@
         <v>8</v>
       </c>
       <c r="C348" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D348" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E348" s="22" t="s">
         <v>129</v>
-      </c>
-      <c r="D348" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="E348" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="F348" s="24">
         <v>31249</v>
@@ -9018,22 +9015,22 @@
     </row>
     <row r="353" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B353" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C353" s="32"/>
       <c r="H353" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
     </row>
     <row r="354" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B354" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C354" s="32"/>
       <c r="H354" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
